--- a/Data/Exports/4202592_1-2.xlsx
+++ b/Data/Exports/4202592_1-2.xlsx
@@ -58,7 +58,7 @@
     <x:t>desc-clases</x:t>
   </x:si>
   <x:si>
-    <x:t>000.0....m00.00.0..0 AGAD M0000.0....mammnln.mmun.a..um</x:t>
+    <x:t>SETEFILLA D LORA 0@AG OACACAOnOACnc HmwrE.0.ELmmsu01n0n</x:t>
   </x:si>
   <x:si>
     <x:t>26</x:t>
